--- a/biology/Biologie cellulaire et moléculaire/Rein_en_fer_à_cheval/Rein_en_fer_à_cheval.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Rein_en_fer_à_cheval/Rein_en_fer_à_cheval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rein_en_fer_%C3%A0_cheval</t>
+          <t>Rein_en_fer_à_cheval</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le rein en fer à cheval correspond à la fusion des deux reins le plus souvent au niveau de leur pôle inférieur l'ensemble prenant une forme de U d'où cette appellation[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rein en fer à cheval correspond à la fusion des deux reins le plus souvent au niveau de leur pôle inférieur l'ensemble prenant une forme de U d'où cette appellation.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rein_en_fer_%C3%A0_cheval</t>
+          <t>Rein_en_fer_à_cheval</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit de l'anomalie de fusion la plus fréquente estimée à 0.25% de la population générale avec une prédominance masculine (2/1)[2].
-Il peut être isolé ou s'intégrer dans un syndrome malformatif (Syndrome de Turner ou Trisomie 18) ou encore à d'autre malformation de l'appareil urinaire[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de l'anomalie de fusion la plus fréquente estimée à 0.25% de la population générale avec une prédominance masculine (2/1).
+Il peut être isolé ou s'intégrer dans un syndrome malformatif (Syndrome de Turner ou Trisomie 18) ou encore à d'autre malformation de l'appareil urinaire,.
 Souvent asymptomatique sa découverte est alors fortuite sur un examen d'imagerie (échographie / scanner).
-Plus rarement il peut être sujet à des complications tel que l'hydronéphrose , l'apparition de lithiases ou l'infection[2],[3].
+Plus rarement il peut être sujet à des complications tel que l'hydronéphrose , l'apparition de lithiases ou l'infection,.
 L'aspect est celui d'un pont unissant les deux reins sur la ligne médiane en avant des gros vaisseaux (aorte et veine cave inférieure).
-Les uretères passent généralement en avant du pont qui peut être parenchymateux ou fibreux[3].
+Les uretères passent généralement en avant du pont qui peut être parenchymateux ou fibreux.
 </t>
         </is>
       </c>
